--- a/HP_assay/HP_assay_1/sample_layout.xlsx
+++ b/HP_assay/HP_assay_1/sample_layout.xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wayne/Documents/Programming/vscode/Hydroxyproline/HP_assay/HP_assay_1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489041E7-11D5-584F-A061-9BAF9783F869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-2680" windowWidth="38400" windowHeight="21100" xr2:uid="{6CE53BA4-EA17-EB44-8A98-63DE70556C69}"/>
+    <workbookView xWindow="-38400" yWindow="-2685" windowWidth="38400" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
-    <sheet name="Well layout1" sheetId="2" r:id="rId2"/>
-    <sheet name="Well layout2" sheetId="3" r:id="rId3"/>
+    <sheet name="Digestion1" sheetId="6" r:id="rId2"/>
+    <sheet name="Digestion2" sheetId="4" r:id="rId3"/>
+    <sheet name="Well layout1" sheetId="2" r:id="rId4"/>
+    <sheet name="Well layout2" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Samples!$D$1:$D$25</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,13 +37,13 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
-      <extLst>
+      <extLst xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
         <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
@@ -63,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="88">
   <si>
     <t>SZ-0526-1-1</t>
   </si>
@@ -309,16 +305,34 @@
   </si>
   <si>
     <t>empty</t>
+  </si>
+  <si>
+    <t>19,HP1,SZ-0526-1-19,sample,526,0526-1,45134,1,8,1638.775,1626.345,1638.775,1626.345,SZ,,HPL,V2P1,07-27-2023</t>
+  </si>
+  <si>
+    <t>20,HP1,SZ-0526-1-20,sample,526,0526-1,45134,2,8,1643.075,1629.985,1643.075,1629.985,SZ,,HPL,V2P1,07-26-2023</t>
+  </si>
+  <si>
+    <t>21,HP1,SZ-0526-1-21,sample,526,0526-1,45136,3,8,1669.05,1656.595,1669.05,1656.595,SZ,,HPL,V2P1,07-26-2023</t>
+  </si>
+  <si>
+    <t>22,HP1,SZ-0526-2-22,sample,526,0526-2,45137,1,8,1635.98,1623.355,1635.98,1623.355,SZ,,HPL,V2P1,07-26-2023</t>
+  </si>
+  <si>
+    <t>23,HP1,SZ-0526-2-23,sample,526,0526-2,45138,2,8,1670.185,1656.98,1670.185,1656.98,SZ,,HPL,V2P1,07-26-2023</t>
+  </si>
+  <si>
+    <t>24,HP1,SZ-0526-2-24,sample,526,0526-2,45139,3,8,1642.74,1629.39,1642.74,1629.39,SZ,,HPL,V2P1,07-26-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -456,7 +470,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -508,7 +522,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -702,38 +716,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E309CBCC-47AE-604C-A811-F9D1F85A87A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="117" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="L1" zoomScale="117" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="88.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" customWidth="1"/>
+    <col min="21" max="21" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -795,7 +809,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="31.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -854,12 +868,10 @@
       </c>
       <c r="T2" s="10" t="str">
         <f>IF(D2="sample",_xlfn.CONCAT(A2,CHAR(10),C2,CHAR(10),TEXT(G2,"mm-dd-yyyy")),"")</f>
-        <v>1
-SZ-0526-1-1
-07-27-2023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>1SZ-0526-1-107-27-2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="31.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -918,12 +930,10 @@
       </c>
       <c r="T3" s="10" t="str">
         <f t="shared" ref="T3:T36" si="0">IF(D3="sample",_xlfn.CONCAT(A3,CHAR(10),C3,CHAR(10),TEXT(G3,"mm-dd-yyyy")),"")</f>
-        <v>2
-SZ-0526-1-2
-07-27-2023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>2SZ-0526-1-207-27-2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="31.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -982,12 +992,10 @@
       </c>
       <c r="T4" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>3
-SZ-0526-1-3
-07-29-2023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>3SZ-0526-1-307-29-2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="31.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1046,12 +1054,10 @@
       </c>
       <c r="T5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>4
-SZ-0526-2-1
-07-30-2023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>4SZ-0526-2-107-30-2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="31.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1110,12 +1116,10 @@
       </c>
       <c r="T6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>5
-SZ-0526-2-2
-07-31-2023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>5SZ-0526-2-207-31-2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="31.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1174,12 +1178,10 @@
       </c>
       <c r="T7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>6
-SZ-0526-2-3
-08-01-2023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>6SZ-0526-2-308-01-2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="31.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1238,12 +1240,10 @@
       </c>
       <c r="T8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>7
-SZ-0526-3-1
-08-02-2023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>7SZ-0526-3-108-02-2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="31.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1302,12 +1302,10 @@
       </c>
       <c r="T9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>8
-SZ-0526-3-2
-08-03-2023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>8SZ-0526-3-208-03-2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="31.5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1366,12 +1364,10 @@
       </c>
       <c r="T10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>9
-SZ-0526-3-3
-08-04-2023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>9SZ-0526-3-308-04-2023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="31.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1430,12 +1426,10 @@
       </c>
       <c r="T11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>10
-SZ-0526-4-1
-08-05-2023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>10SZ-0526-4-108-05-2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="31.5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1494,12 +1488,10 @@
       </c>
       <c r="T12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>11
-SZ-0526-4-2
-08-06-2023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>11SZ-0526-4-208-06-2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="31.5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1558,12 +1550,10 @@
       </c>
       <c r="T13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>12
-SZ-0526-4-3
-08-07-2023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>12SZ-0526-4-308-07-2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="31.5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1622,12 +1612,10 @@
       </c>
       <c r="T14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>13
-SZ-0602-1-1
-08-08-2023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>13SZ-0602-1-108-08-2023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="31.5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1686,12 +1674,10 @@
       </c>
       <c r="T15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>14
-SZ-0602-1-2
-08-09-2023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>14SZ-0602-1-208-09-2023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="31.5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1750,12 +1736,10 @@
       </c>
       <c r="T16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>15
-SZ-0602-1-3
-08-10-2023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>15SZ-0602-1-308-10-2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="31.5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1814,12 +1798,10 @@
       </c>
       <c r="T17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>16
-SZ-0602-2-1
-08-11-2023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>16SZ-0602-2-108-11-2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="31.5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1878,12 +1860,10 @@
       </c>
       <c r="T18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>17
-SZ-0602-2-2
-08-12-2023</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>17SZ-0602-2-208-12-2023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="31.5">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1942,12 +1922,10 @@
       </c>
       <c r="T19" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>18
-SZ-0602-2-3
-08-13-2023</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>18SZ-0602-2-308-13-2023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="31.5">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2006,12 +1984,10 @@
       </c>
       <c r="T20" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>19
-SZ-0602-3-1
-08-14-2023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>19SZ-0602-3-108-14-2023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="31.5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2070,12 +2046,10 @@
       </c>
       <c r="T21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>20
-SZ-0602-3-2
-08-15-2023</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>20SZ-0602-3-208-15-2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="31.5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2134,12 +2108,10 @@
       </c>
       <c r="T22" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>21
-SZ-0602-3-3
-08-16-2023</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>21SZ-0602-3-308-16-2023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="31.5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2198,12 +2170,10 @@
       </c>
       <c r="T23" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>22
-SZ-0602-4-1
-08-17-2023</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>22SZ-0602-4-108-17-2023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="31.5">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2262,12 +2232,10 @@
       </c>
       <c r="T24" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>23
-SZ-0602-4-2
-08-18-2023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>23SZ-0602-4-208-18-2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="31.5">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2326,12 +2294,10 @@
       </c>
       <c r="T25" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>24
-SZ-0602-4-3
-08-19-2023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+        <v>24SZ-0602-4-308-19-2023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2373,7 +2339,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2415,7 +2381,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2457,7 +2423,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2499,7 +2465,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2541,7 +2507,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2583,7 +2549,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2625,7 +2591,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2667,7 +2633,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2709,7 +2675,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2749,7 +2715,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2784,16 +2750,16 @@
   <dataConsolidate/>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P36" xr:uid="{DAC8C745-F4CF-D94C-9CC5-BDFD0E32CDD0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P36">
       <formula1>"HPL,FBS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q36" xr:uid="{95A34009-3AD5-2E41-BF5A-77E6354F1747}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q36">
       <formula1>"V2P1,PLA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D34 D36" xr:uid="{43954BC5-FBC5-CE4B-AE18-5DDC258BB5B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D34 D36">
       <formula1>"sample,standard,blank_control,control"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35" xr:uid="{9F1065F8-5752-4C40-B95C-BC223B71B815}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35">
       <formula1>"sample,standard,blank_control,control,empty"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2802,19 +2768,574 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC62B76A-6E26-A147-AB2E-28F2FCE60114}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="str">
+        <f>Samples!S2</f>
+        <v>1,HP1,SZ-0526-1-1,sample,526,0526-1,45134,1,8,1638.775,1626.345,1638.775,1626.345,SZ,,HPL,V2P1,07-27-2023</v>
+      </c>
+      <c r="D3" t="str">
+        <f>Samples!S8</f>
+        <v>7,HP1,SZ-0526-3-1,sample,526,0526-3,45140,1,8,1678.96,1664.95,1678.96,1664.95,SZ,,FBS,V2P1,07-26-2023</v>
+      </c>
+      <c r="E3" t="str">
+        <f>Samples!S14</f>
+        <v>13,HP1,SZ-0602-1-1,sample,602,0602-1,45146,1,8,1643.005,1631.3,1643.005,1631.3,SZ,,HPL,PLA,07-26-2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="str">
+        <f>Samples!S3</f>
+        <v>2,HP1,SZ-0526-1-2,sample,526,0526-1,45134,2,8,1643.075,1629.985,1643.075,1629.985,SZ,,HPL,V2P1,07-26-2023</v>
+      </c>
+      <c r="D4" t="str">
+        <f>Samples!S9</f>
+        <v>8,HP1,SZ-0526-3-2,sample,526,0526-3,45141,2,8,1636.87,1625.015,1636.87,1625.015,SZ,,FBS,V2P1,07-26-2023</v>
+      </c>
+      <c r="E4" t="str">
+        <f>Samples!S15</f>
+        <v>14,HP1,SZ-0602-1-2,sample,602,0602-1,45147,2,8,1655.505,1650.595,1655.505,1650.595,SZ,,HPL,PLA,07-26-2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="str">
+        <f>Samples!S4</f>
+        <v>3,HP1,SZ-0526-1-3,sample,526,0526-1,45136,3,8,1669.05,1656.595,1669.05,1656.595,SZ,,HPL,V2P1,07-26-2023</v>
+      </c>
+      <c r="D5" t="str">
+        <f>Samples!S10</f>
+        <v>9,HP1,SZ-0526-3-3,sample,526,0526-3,45142,3,8,1652.83,1639.685,1652.83,1639.685,SZ,,FBS,V2P1,07-26-2023</v>
+      </c>
+      <c r="E5" t="str">
+        <f>Samples!S16</f>
+        <v>15,HP1,SZ-0602-1-3,sample,602,0602-1,45148,3,8,1663.345,1645.765,1663.345,1645.765,SZ,,HPL,PLA,07-26-2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="str">
+        <f>Samples!S5</f>
+        <v>4,HP1,SZ-0526-2-1,sample,526,0526-2,45137,1,8,1635.98,1623.355,1635.98,1623.355,SZ,,HPL,V2P1,07-26-2023</v>
+      </c>
+      <c r="D6" t="str">
+        <f>Samples!S11</f>
+        <v>10,HP1,SZ-0526-4-1,sample,526,0526-4,45143,1,8,1673.72,1660.315,1673.72,1660.315,SZ,,FBS,V2P1,07-26-2023</v>
+      </c>
+      <c r="E6" t="str">
+        <f>Samples!S17</f>
+        <v>16,HP1,SZ-0602-2-1,sample,602,0602-2,45149,1,8,1653.31,1642.39,1653.31,1642.39,SZ,,HPL,PLA,07-26-2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="str">
+        <f>Samples!S6</f>
+        <v>5,HP1,SZ-0526-2-2,sample,526,0526-2,45138,2,8,1670.185,1656.98,1670.185,1656.98,SZ,,HPL,V2P1,07-26-2023</v>
+      </c>
+      <c r="D7" t="str">
+        <f>Samples!S12</f>
+        <v>11,HP1,SZ-0526-4-2,sample,526,0526-4,45144,2,8,1675.07,1660.795,1675.07,1660.795,SZ,,FBS,V2P1,07-26-2023</v>
+      </c>
+      <c r="E7" t="str">
+        <f>Samples!S18</f>
+        <v>17,HP1,SZ-0602-2-2,sample,602,0602-2,45150,2,8,1646.065,1634.63,1646.065,1634.63,SZ,,HPL,PLA,07-26-2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="str">
+        <f>Samples!S7</f>
+        <v>6,HP1,SZ-0526-2-3,sample,526,0526-2,45139,3,8,1642.74,1629.39,1642.74,1629.39,SZ,,HPL,V2P1,07-26-2023</v>
+      </c>
+      <c r="D8" t="str">
+        <f>Samples!S13</f>
+        <v>12,HP1,SZ-0526-4-3,sample,526,0526-4,45145,3,8,1633.5,1620.205,1633.5,1620.205,SZ,,FBS,V2P1,07-26-2023</v>
+      </c>
+      <c r="E8" t="str">
+        <f>Samples!S19</f>
+        <v>18,HP1,SZ-0602-2-3,sample,602,0602-2,45151,3,8,1641.16,1629.315,1641.16,1629.315,SZ,,HPL,PLA,07-26-2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="11" width="36.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" ht="47.25">
+      <c r="A3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" ht="47.25">
+      <c r="A4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" ht="47.25">
+      <c r="A5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" ht="47.25">
+      <c r="A6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" ht="47.25">
+      <c r="A7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" ht="47.25">
+      <c r="A8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="13" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="B1" s="2">
         <v>1</v>
       </c>
@@ -2852,7 +3373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="141.75">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -2905,7 +3426,7 @@
         <v>13,HP1,SZ-0602-1-1,sample,602,0602-1,45146,1,8,1643.005,1631.3,1643.005,1631.3,SZ,,HPL,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="141.75">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -2958,7 +3479,7 @@
         <v>14,HP1,SZ-0602-1-2,sample,602,0602-1,45147,2,8,1655.505,1650.595,1655.505,1650.595,SZ,,HPL,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="141.75">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -3011,7 +3532,7 @@
         <v>15,HP1,SZ-0602-1-3,sample,602,0602-1,45148,3,8,1663.345,1645.765,1663.345,1645.765,SZ,,HPL,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="141.75">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -3064,7 +3585,7 @@
         <v>16,HP1,SZ-0602-2-1,sample,602,0602-2,45149,1,8,1653.31,1642.39,1653.31,1642.39,SZ,,HPL,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="141.75">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -3117,7 +3638,7 @@
         <v>17,HP1,SZ-0602-2-2,sample,602,0602-2,45150,2,8,1646.065,1634.63,1646.065,1634.63,SZ,,HPL,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="141.75">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -3170,7 +3691,7 @@
         <v>18,HP1,SZ-0602-2-3,sample,602,0602-2,45151,3,8,1641.16,1629.315,1641.16,1629.315,SZ,,HPL,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="47.25">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -3179,7 +3700,7 @@
         <v>35,HP1,water,blank_control,,,,,,,,,,SZ,,,,07-26-2023</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -3189,20 +3710,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CF2658-99E5-0D4F-BF5A-384C938EA4E6}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="13" width="23.33203125" customWidth="1"/>
+    <col min="1" max="13" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="2"/>
       <c r="B1" s="4">
         <v>1</v>
@@ -3241,7 +3762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="78.75">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -3288,7 +3809,7 @@
         <v>25,HP1,S0,standard,,,,,,,,,,SZ,0,,,07-26-2023</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="78.75">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -3335,7 +3856,7 @@
         <v>25,HP1,S0,standard,,,,,,,,,,SZ,0,,,07-26-2023</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="78.75">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -3364,7 +3885,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="78.75">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -3393,7 +3914,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="78.75">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -3434,7 +3955,7 @@
         <v>31,HP1,G5,control,,,,,,,,,,SZ,10,,,07-26-2023</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="78.75">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -3475,7 +3996,7 @@
         <v>32,HP1,G2.5,control,,,,,,,,,,SZ,5,,,07-26-2023</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -3504,7 +4025,7 @@
         <v>33,HP1,G0,control,,,,,,,,,,SZ,0,,,07-26-2023</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
